--- a/Data_clean/MCAS/Estados_US/Edos_USA_2014/VERMONT_2014.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2014/VERMONT_2014.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Bella Vista</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Comitán De Domínguez</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>La Concordia</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -481,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Total</t>
@@ -587,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -600,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Total</t>
@@ -631,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Cuautitlán</t>
@@ -644,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Teotihuacán</t>
@@ -657,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Total</t>
@@ -688,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Total</t>
@@ -719,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Atlixtac</t>
@@ -732,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Total</t>
@@ -763,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -776,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Total</t>
@@ -807,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -820,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>San Antonino Monte Verde</t>
@@ -833,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>San Baltazar Chichicápam</t>
@@ -846,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>San Francisco Logueche</t>
@@ -859,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>San José Lachiguiri</t>
@@ -872,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>San Pedro Y San Pablo Teposcolula</t>
@@ -885,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Santa María Yolotepec</t>
@@ -898,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Unión Hidalgo</t>
@@ -911,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Total</t>
@@ -942,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Hueytamalco</t>
@@ -955,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Izúcar De Matamoros</t>
@@ -968,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Jolalpan</t>
@@ -981,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -994,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Quimixtlán</t>
@@ -1007,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>San Gabriel Chilac</t>
@@ -1020,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>San Pedro Cholula</t>
@@ -1033,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Tepexi De Rodríguez</t>
@@ -1046,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Tlaola</t>
@@ -1059,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Xiutetelco</t>
@@ -1072,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Zautla</t>
@@ -1085,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1116,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1147,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Centro</t>
@@ -1160,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -1173,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1204,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Altotonga</t>
@@ -1217,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Atzalan</t>
@@ -1230,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Coahuitlán</t>
@@ -1243,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Isla</t>
@@ -1256,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>José Azueta</t>
@@ -1269,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -1282,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -1295,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Misantla</t>
@@ -1308,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -1321,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Tlacolulan</t>
@@ -1334,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -1347,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Tlaquilpa</t>
@@ -1360,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -1373,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Yecuatla</t>
@@ -1386,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Total</t>
